--- a/Goverment24/개인정보샘플.xlsx
+++ b/Goverment24/개인정보샘플.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samsung\Documents\UiPath\Goverment24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD9C611-5E0E-4ACE-98A9-437D460B054C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1BA539-8F6E-41E1-BC62-F2DE058D3330}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27255" yWindow="615" windowWidth="21600" windowHeight="11385" xr2:uid="{EF7A9ECE-B507-4989-9106-C203E84DBF2F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EF7A9ECE-B507-4989-9106-C203E84DBF2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="10">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1"/>
@@ -469,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B2C3796-5EF3-4E23-A20C-4DE123CC65EF}">
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:H151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="G90" sqref="G90"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="A149" sqref="A149:A151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1227,6 +1227,486 @@
         <v>9</v>
       </c>
     </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
